--- a/Kaplan_Automation/TestData/TC_005_MyDetailsUpdate.xlsx
+++ b/Kaplan_Automation/TestData/TC_005_MyDetailsUpdate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="3675" windowWidth="15195" windowHeight="6090"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="12375" windowHeight="6090"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
     <t>Sword</t>
   </si>
   <si>
-    <t>newregistereduser@mail.com</t>
+    <t>addabook5@mail.com</t>
   </si>
 </sst>
 </file>
@@ -392,7 +392,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
